--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H2">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,36 +564,36 @@
         <v>0.143837</v>
       </c>
       <c r="O2">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2500760630046667</v>
+        <v>1.010563058460222</v>
       </c>
       <c r="R2">
-        <v>2.250684567042</v>
+        <v>9.095067526142</v>
       </c>
       <c r="S2">
-        <v>0.03135250625611789</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="T2">
-        <v>0.03135250625611789</v>
+        <v>0.1567570073990861</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.215822</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H3">
-        <v>15.647466</v>
+        <v>254.912293</v>
       </c>
       <c r="I3">
-        <v>0.04031814991753075</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J3">
-        <v>0.04031814991753075</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,39 +620,39 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01371066666666667</v>
+        <v>0.04794566666666666</v>
       </c>
       <c r="N3">
-        <v>0.041132</v>
+        <v>0.143837</v>
       </c>
       <c r="O3">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.07151239683466667</v>
+        <v>4.073979943137888</v>
       </c>
       <c r="R3">
-        <v>0.643611571512</v>
+        <v>36.66581948824099</v>
       </c>
       <c r="S3">
-        <v>0.008965643661412857</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="T3">
-        <v>0.008965643661412857</v>
+        <v>0.6319495836937243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>84.97076433333332</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H4">
-        <v>254.912293</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I4">
-        <v>0.6568214971673703</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J4">
-        <v>0.6568214971673704</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,54 +688,54 @@
         <v>0.143837</v>
       </c>
       <c r="O4">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>4.073979943137888</v>
+        <v>1.338989500684444</v>
       </c>
       <c r="R4">
-        <v>36.66581948824099</v>
+        <v>12.05090550616</v>
       </c>
       <c r="S4">
-        <v>0.510762526088496</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="T4">
-        <v>0.5107625260884963</v>
+        <v>0.2077020185023436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>84.97076433333332</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H5">
-        <v>254.912293</v>
+        <v>1.346391</v>
       </c>
       <c r="I5">
-        <v>0.6568214971673703</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J5">
-        <v>0.6568214971673704</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,60 +744,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01371066666666667</v>
+        <v>0.04794566666666666</v>
       </c>
       <c r="N5">
-        <v>0.041132</v>
+        <v>0.143837</v>
       </c>
       <c r="O5">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.165005826186222</v>
+        <v>0.021517871363</v>
       </c>
       <c r="R5">
-        <v>10.485052435676</v>
+        <v>0.193660842267</v>
       </c>
       <c r="S5">
-        <v>0.1460589710788742</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="T5">
-        <v>0.1460589710788742</v>
+        <v>0.003337819537557481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.03355766666666667</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H6">
-        <v>0.100673</v>
+        <v>0.102284</v>
       </c>
       <c r="I6">
-        <v>0.0002593997716082318</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J6">
-        <v>0.0002593997716082318</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,456 +812,22 @@
         <v>0.143837</v>
       </c>
       <c r="O6">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.001608944700111111</v>
+        <v>0.001634691523111111</v>
       </c>
       <c r="R6">
-        <v>0.014480502301</v>
+        <v>0.014712223708</v>
       </c>
       <c r="S6">
-        <v>0.000201716422475189</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="T6">
-        <v>0.0002017164224751891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.03355766666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.100673</v>
-      </c>
-      <c r="I7">
-        <v>0.0002593997716082318</v>
-      </c>
-      <c r="J7">
-        <v>0.0002593997716082318</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.041132</v>
-      </c>
-      <c r="O7">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="P7">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="Q7">
-        <v>0.0004600979817777778</v>
-      </c>
-      <c r="R7">
-        <v>0.004140881836</v>
-      </c>
-      <c r="S7">
-        <v>5.768334913304279E-05</v>
-      </c>
-      <c r="T7">
-        <v>5.768334913304279E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>39.03529933333333</v>
-      </c>
-      <c r="H8">
-        <v>117.105898</v>
-      </c>
-      <c r="I8">
-        <v>0.3017417102418414</v>
-      </c>
-      <c r="J8">
-        <v>0.3017417102418414</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.04794566666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.143837</v>
-      </c>
-      <c r="O8">
-        <v>0.7776276024631154</v>
-      </c>
-      <c r="P8">
-        <v>0.7776276024631155</v>
-      </c>
-      <c r="Q8">
-        <v>1.871573450069556</v>
-      </c>
-      <c r="R8">
-        <v>16.844161050626</v>
-      </c>
-      <c r="S8">
-        <v>0.2346426826984832</v>
-      </c>
-      <c r="T8">
-        <v>0.2346426826984832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>39.03529933333333</v>
-      </c>
-      <c r="H9">
-        <v>117.105898</v>
-      </c>
-      <c r="I9">
-        <v>0.3017417102418414</v>
-      </c>
-      <c r="J9">
-        <v>0.3017417102418414</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.041132</v>
-      </c>
-      <c r="O9">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="P9">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="Q9">
-        <v>0.5351999773928889</v>
-      </c>
-      <c r="R9">
-        <v>4.816799796536</v>
-      </c>
-      <c r="S9">
-        <v>0.06709902754335818</v>
-      </c>
-      <c r="T9">
-        <v>0.06709902754335818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.008067</v>
-      </c>
-      <c r="H10">
-        <v>0.024201</v>
-      </c>
-      <c r="I10">
-        <v>6.235767159705997E-05</v>
-      </c>
-      <c r="J10">
-        <v>6.235767159705999E-05</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.04794566666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.143837</v>
-      </c>
-      <c r="O10">
-        <v>0.7776276024631154</v>
-      </c>
-      <c r="P10">
-        <v>0.7776276024631155</v>
-      </c>
-      <c r="Q10">
-        <v>0.000386777693</v>
-      </c>
-      <c r="R10">
-        <v>0.003480999237</v>
-      </c>
-      <c r="S10">
-        <v>4.849104665920405E-05</v>
-      </c>
-      <c r="T10">
-        <v>4.849104665920407E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.008067</v>
-      </c>
-      <c r="H11">
-        <v>0.024201</v>
-      </c>
-      <c r="I11">
-        <v>6.235767159705997E-05</v>
-      </c>
-      <c r="J11">
-        <v>6.235767159705999E-05</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.041132</v>
-      </c>
-      <c r="O11">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="P11">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="Q11">
-        <v>0.000110603948</v>
-      </c>
-      <c r="R11">
-        <v>0.0009954355320000001</v>
-      </c>
-      <c r="S11">
-        <v>1.386662493785592E-05</v>
-      </c>
-      <c r="T11">
-        <v>1.386662493785592E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.309271</v>
-      </c>
-      <c r="I12">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J12">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.04794566666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.143837</v>
-      </c>
-      <c r="O12">
-        <v>0.7776276024631154</v>
-      </c>
-      <c r="P12">
-        <v>0.7776276024631155</v>
-      </c>
-      <c r="Q12">
-        <v>0.004942734758555556</v>
-      </c>
-      <c r="R12">
-        <v>0.044484612827</v>
-      </c>
-      <c r="S12">
-        <v>0.0006196799508837939</v>
-      </c>
-      <c r="T12">
-        <v>0.0006196799508837941</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.309271</v>
-      </c>
-      <c r="I13">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J13">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.041132</v>
-      </c>
-      <c r="O13">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="P13">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="Q13">
-        <v>0.001413437196888889</v>
-      </c>
-      <c r="R13">
-        <v>0.012720934772</v>
-      </c>
-      <c r="S13">
-        <v>0.0001772052791684491</v>
-      </c>
-      <c r="T13">
-        <v>0.0001772052791684491</v>
+        <v>0.0002535708672885733</v>
       </c>
     </row>
   </sheetData>
